--- a/Labs/Sebastian Echeverria 1138122 y Andres Aldana 1038421.xlsx
+++ b/Labs/Sebastian Echeverria 1138122 y Andres Aldana 1038421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtu\Documents\Github\1138122\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569D8054-2359-4501-ABDE-57948A885A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A6FAD-4007-4941-9F5D-813A2CD0A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{BF96B250-7631-4A69-8791-E11BE74AA7E5}"/>
   </bookViews>
@@ -91,8 +91,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,9 +164,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +483,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D13"/>
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +516,7 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -551,7 +550,7 @@
         <f t="shared" ref="I2:I7" si="0">AVERAGE(D2:H2)</f>
         <v>6.7320000000000011</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>SQRT((POWER(D2-I2,2)+POWER(E2-I2,2)+POWER(F2-I2,2)+POWER(G2-I2,2)+POWER(H2-I2,2))/(5*(5-1)))</f>
         <v>0.12113628688382348</v>
       </c>
@@ -586,7 +585,7 @@
         <f t="shared" si="0"/>
         <v>5.9279999999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J7" si="1">SQRT((POWER(D3-I3,2)+POWER(E3-I3,2)+POWER(F3-I3,2)+POWER(G3-I3,2)+POWER(H3-I3,2))/(5*(5-1)))</f>
         <v>9.3187982057774024E-2</v>
       </c>
@@ -621,7 +620,7 @@
         <f t="shared" si="0"/>
         <v>5.5659999999999998</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
         <v>6.2096698785040011E-2</v>
       </c>
@@ -656,7 +655,7 @@
         <f t="shared" si="0"/>
         <v>4.9919999999999991</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>9.6767763227223622E-2</v>
       </c>
@@ -691,7 +690,7 @@
         <f t="shared" si="0"/>
         <v>4.6980000000000004</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>7.1232015274032487E-2</v>
       </c>
@@ -726,7 +725,7 @@
         <f t="shared" si="0"/>
         <v>4.2499999999999991</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="1"/>
         <v>0.13501851724856109</v>
       </c>
@@ -741,9 +740,10 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -757,6 +757,8 @@
         <f>16/1000</f>
         <v>1.6E-2</v>
       </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -770,6 +772,8 @@
         <f>9.5/1000</f>
         <v>9.4999999999999998E-3</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -783,6 +787,8 @@
         <f>11/1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -796,6 +802,8 @@
         <f>18/1000</f>
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -803,6 +811,8 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
